--- a/doc/機能一覧_D3.xlsx
+++ b/doc/機能一覧_D3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\研修\D3開発\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8573EBD-0455-4E70-86E3-0D0A89D6249A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F00C94-EB5E-4656-A37E-6383DAB2F4A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="131">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -782,19 +782,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>投稿内容が表示される</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>通報されたものにつく</t>
     <rPh sb="0" eb="2">
       <t>ツウホウ</t>
@@ -803,20 +790,6 @@
   </si>
   <si>
     <t>！マーク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除ボタンクリック</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除される</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -946,13 +919,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>通報ボタンクリック</t>
-    <rPh sb="0" eb="2">
-      <t>ツウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>通報する</t>
     <rPh sb="0" eb="2">
       <t>ツウホウ</t>
@@ -974,13 +940,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>内容表示</t>
-    <rPh sb="0" eb="4">
-      <t>ナイヨウヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>返信内容入力</t>
     <rPh sb="0" eb="6">
       <t>ヘンシンナイヨウニュウリョク</t>
@@ -1002,16 +961,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>掲示板に戻る</t>
-    <rPh sb="0" eb="3">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>中庭掲示板</t>
     <rPh sb="0" eb="5">
       <t>ナカニワケイジバン</t>
@@ -1026,13 +975,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>削除クリック</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>飛行機ボタンクリック</t>
     <rPh sb="0" eb="3">
       <t>ヒコウキ</t>
@@ -1060,26 +1002,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実名または匿名動物</t>
-    <rPh sb="0" eb="2">
-      <t>ジツメイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トクメイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ドウブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>返信内容</t>
-    <rPh sb="0" eb="4">
-      <t>ヘンシンナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>本文投稿者名</t>
     <rPh sb="0" eb="2">
       <t>ホンブン</t>
@@ -1090,28 +1012,161 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>匿名か実名を表示</t>
-    <rPh sb="0" eb="2">
+    <t>目のアイコン</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通報された投稿表示</t>
+    <rPh sb="0" eb="2">
+      <t>ツウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>トウコウヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通報された投稿</t>
+    <rPh sb="0" eb="2">
+      <t>ツウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿内容タイトル</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿内容カテゴリ</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信内容</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信者（実名または匿名動物）</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンシンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジツメイ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>トクメイドウブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴミ箱アイコンクリック</t>
+    <rPh sb="2" eb="3">
+      <t>バコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通報されたものを削除</t>
+    <rPh sb="0" eb="2">
+      <t>ツウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>匿名剥がす</t>
+    <rPh sb="0" eb="3">
+      <t>トクメイハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閉じる</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通報アイコンクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ツウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択（ラジオボタン）</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本文内容</t>
+    <rPh sb="0" eb="4">
+      <t>ホンブンナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もとからある返信の内容</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もとからある返信の投稿者（実名または匿名動物）</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>トウコウシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジツメイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
       <t>トクメイ</t>
     </rPh>
+    <rPh sb="20" eb="22">
+      <t>ドウブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信の時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
     <rPh sb="3" eb="5">
-      <t>ジツメイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本文投稿者名</t>
-    <rPh sb="0" eb="2">
-      <t>ホンブン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>トウコウシャ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
+      <t>ジコク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1160,7 +1215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1220,13 +1275,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1265,6 +1329,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1604,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I122"/>
+  <dimension ref="B2:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="E43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1616,7 +1692,7 @@
     <col min="2" max="2" width="6.7265625" customWidth="1"/>
     <col min="3" max="3" width="24.08984375" customWidth="1"/>
     <col min="4" max="4" width="31.54296875" customWidth="1"/>
-    <col min="5" max="5" width="26.36328125" customWidth="1"/>
+    <col min="5" max="5" width="47.81640625" customWidth="1"/>
     <col min="6" max="6" width="19.453125" customWidth="1"/>
     <col min="7" max="7" width="12.90625" customWidth="1"/>
     <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
@@ -1627,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I2" s="10"/>
     </row>
@@ -1642,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
@@ -2604,10 +2680,10 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -2615,25 +2691,33 @@
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="2"/>
+      <c r="B63" s="2">
+        <v>56</v>
+      </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="3"/>
+      <c r="H63" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -2641,13 +2725,15 @@
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="2"/>
+      <c r="B65" s="2">
+        <v>58</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -2655,13 +2741,17 @@
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="B66" s="2">
+        <v>59</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="D66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -2670,37 +2760,46 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="3" t="s">
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="2">
         <v>61</v>
       </c>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="3"/>
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="2"/>
+      <c r="B69" s="2">
+        <v>62</v>
+      </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="3"/>
@@ -2708,14 +2807,14 @@
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -2724,16 +2823,14 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="2">
-        <v>61</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -2742,14 +2839,14 @@
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -2758,14 +2855,14 @@
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2774,14 +2871,14 @@
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -2790,14 +2887,14 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -2806,14 +2903,14 @@
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -2822,34 +2919,32 @@
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="2">
-        <v>67</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="D77" s="2" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="H77" s="3"/>
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="2">
-        <v>68</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -2858,11 +2953,11 @@
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>91</v>
@@ -2874,14 +2969,14 @@
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -2890,14 +2985,14 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -2906,14 +3001,14 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -2922,67 +3017,66 @@
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
+      <c r="H83" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="H84" s="3"/>
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="H85" s="3"/>
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -2991,14 +3085,14 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -3007,14 +3101,14 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -3023,62 +3117,67 @@
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="3"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" s="2">
-        <v>80</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D90" s="2" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="3"/>
+      <c r="H90" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="3"/>
+      <c r="H91" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -3087,14 +3186,14 @@
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -3103,14 +3202,14 @@
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -3119,14 +3218,14 @@
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -3135,14 +3234,14 @@
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -3151,14 +3250,14 @@
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -3167,11 +3266,15 @@
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="D98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="3"/>
@@ -3179,11 +3282,15 @@
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B99" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="D99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="3"/>
@@ -3191,11 +3298,15 @@
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="D100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="3"/>
@@ -3203,11 +3314,15 @@
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="D101" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="3"/>
@@ -3215,11 +3330,15 @@
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="3"/>
@@ -3227,243 +3346,283 @@
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B103" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+      <c r="D103" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="3"/>
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B104" s="2">
-        <v>94</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="3"/>
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B105" s="2">
-        <v>95</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="3"/>
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B106" s="2">
-        <v>96</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="3"/>
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B107" s="2">
-        <v>97</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="3"/>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B108" s="2">
-        <v>98</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="2"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="15"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B109" s="2">
-        <v>99</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="2"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="13"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B110" s="2">
-        <v>100</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="2"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="13"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B111" s="2">
-        <v>101</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="2"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="13"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B112" s="2">
-        <v>102</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="2"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="13"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B113" s="2">
-        <v>103</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="2"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="13"/>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B114" s="2">
-        <v>104</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="2"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="13"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B115" s="2">
-        <v>105</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="2"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="13"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B116" s="2">
-        <v>106</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="2"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="13"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B117" s="2">
-        <v>107</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="2"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="13"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B118" s="2">
-        <v>108</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="2"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="13"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B119" s="2">
-        <v>109</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="2"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="13"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B120" s="2">
-        <v>110</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="2"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="13"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B121" s="2">
-        <v>111</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="2"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="13"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B122" s="2">
-        <v>112</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="2"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="13"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="13"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="13"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="13"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="13"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="13"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="13"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="13"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B130" s="13"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="13"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B131" s="13"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/機能一覧_D3.xlsx
+++ b/doc/機能一覧_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F00C94-EB5E-4656-A37E-6383DAB2F4A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7241796E-4CA6-4617-8E45-2A837F966B6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21090" yWindow="2250" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1029,16 +1029,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>通報された投稿</t>
-    <rPh sb="0" eb="2">
-      <t>ツウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投稿内容タイトル</t>
     <rPh sb="0" eb="4">
       <t>トウコウナイヨウ</t>
@@ -1167,6 +1157,19 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通報された投稿表示機能</t>
+    <rPh sb="0" eb="2">
+      <t>ツウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒョウジキノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1290,7 +1293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1321,6 +1324,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1329,18 +1338,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1680,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I131"/>
+  <dimension ref="B2:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1708,10 +1705,10 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
@@ -1723,24 +1720,24 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="13">
         <v>45084</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -2745,13 +2742,13 @@
         <v>59</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -2767,7 +2764,7 @@
         <v>18</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -2798,7 +2795,7 @@
         <v>18</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -2814,7 +2811,7 @@
         <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -2830,7 +2827,7 @@
         <v>18</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -2859,10 +2856,10 @@
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2878,7 +2875,7 @@
         <v>113</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -2894,7 +2891,7 @@
         <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -3124,7 +3121,7 @@
         <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -3138,7 +3135,7 @@
         <v>98</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>99</v>
@@ -3156,7 +3153,7 @@
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>101</v>
@@ -3241,7 +3238,7 @@
         <v>18</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -3257,7 +3254,7 @@
         <v>18</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -3273,7 +3270,7 @@
         <v>18</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -3289,7 +3286,7 @@
         <v>18</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -3337,7 +3334,7 @@
         <v>106</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -3350,7 +3347,7 @@
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>110</v>
@@ -3385,244 +3382,14 @@
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="15"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="13"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="13"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="13"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="13"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="13"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="13"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="13"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="13"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B117" s="13"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="13"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="13"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="13"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="13"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="13"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="13"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="13"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="13"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="13"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="13"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="13"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="13"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="13"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B130" s="13"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="13"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B131" s="13"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="13"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/機能一覧_D3.xlsx
+++ b/doc/機能一覧_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7241796E-4CA6-4617-8E45-2A837F966B6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4793CF07-8E7A-451F-8122-913349D8AFDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21090" yWindow="2250" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="132">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -947,16 +947,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>返信内容を投稿</t>
-    <rPh sb="0" eb="4">
-      <t>ヘンシンナイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>×クリック</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -975,13 +965,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>飛行機ボタンクリック</t>
-    <rPh sb="0" eb="3">
-      <t>ヒコウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>匿名か実名か選択</t>
     <rPh sb="0" eb="2">
       <t>トクメイ</t>
@@ -1151,16 +1134,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>返信の時刻</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>通報された投稿表示機能</t>
     <rPh sb="0" eb="2">
       <t>ツウホウ</t>
@@ -1170,6 +1143,43 @@
     </rPh>
     <rPh sb="7" eb="11">
       <t>ヒョウジキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本文投稿日時</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>トウコウニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もとからある返信の返信時刻</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛行機アイコンクリック</t>
+    <rPh sb="0" eb="3">
+      <t>ヒコウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEBサービス製造</t>
+    <rPh sb="7" eb="9">
+      <t>セイゾウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1218,7 +1228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1278,22 +1288,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1324,20 +1325,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1677,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I108"/>
+  <dimension ref="B2:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1700,44 +1695,48 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="12"/>
+      <c r="H2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <v>45084</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="H4" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="H5" s="11">
+        <v>45085</v>
+      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -2730,7 +2729,7 @@
         <v>82</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -2742,13 +2741,13 @@
         <v>59</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -2764,7 +2763,7 @@
         <v>18</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -2779,7 +2778,7 @@
         <v>18</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -2795,7 +2794,7 @@
         <v>18</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -2811,7 +2810,7 @@
         <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -2827,7 +2826,7 @@
         <v>18</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -2843,7 +2842,7 @@
         <v>18</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -2856,10 +2855,10 @@
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2872,10 +2871,10 @@
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -2888,10 +2887,10 @@
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -3118,10 +3117,10 @@
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -3135,7 +3134,7 @@
         <v>98</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>99</v>
@@ -3153,7 +3152,7 @@
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>101</v>
@@ -3222,7 +3221,7 @@
         <v>18</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -3238,7 +3237,7 @@
         <v>18</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -3254,7 +3253,7 @@
         <v>18</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -3270,7 +3269,7 @@
         <v>18</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -3286,7 +3285,7 @@
         <v>18</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -3299,10 +3298,10 @@
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -3315,10 +3314,10 @@
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -3331,10 +3330,10 @@
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -3347,10 +3346,10 @@
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -3358,38 +3357,20 @@
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B104" s="2">
+        <v>97</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="3"/>
       <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="2"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/機能一覧_D3.xlsx
+++ b/doc/機能一覧_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4793CF07-8E7A-451F-8122-913349D8AFDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACF5E3C-3DED-49CB-AB39-836E98E905C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="133">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1180,6 +1180,19 @@
     <t>WEBサービス製造</t>
     <rPh sb="7" eb="9">
       <t>セイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実名または匿名を選択</t>
+    <rPh sb="0" eb="2">
+      <t>ジツメイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクメイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1672,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I104"/>
+  <dimension ref="B2:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3069,10 +3082,10 @@
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -3088,7 +3101,7 @@
         <v>17</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -3101,10 +3114,10 @@
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -3117,45 +3130,43 @@
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
+      <c r="H89" s="3"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" s="2">
         <v>83</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" s="2">
         <v>84</v>
       </c>
-      <c r="C91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -3170,14 +3181,16 @@
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="3"/>
+      <c r="H92" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
@@ -3189,7 +3202,7 @@
         <v>18</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -3205,7 +3218,7 @@
         <v>18</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -3221,7 +3234,7 @@
         <v>18</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -3237,7 +3250,7 @@
         <v>18</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -3253,7 +3266,7 @@
         <v>18</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -3269,7 +3282,7 @@
         <v>18</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -3285,7 +3298,7 @@
         <v>18</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -3301,7 +3314,7 @@
         <v>18</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -3314,10 +3327,10 @@
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -3330,10 +3343,10 @@
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -3346,10 +3359,10 @@
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -3362,15 +3375,31 @@
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="3"/>
       <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B105" s="2">
+        <v>98</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/機能一覧_D3.xlsx
+++ b/doc/機能一覧_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACF5E3C-3DED-49CB-AB39-836E98E905C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF535AB-FFF8-43F6-8DF2-DDDC5A27E8C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19510" yWindow="1590" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="134">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1193,6 +1193,16 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時刻の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1685,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I105"/>
+  <dimension ref="B2:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="B88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2807,7 +2817,7 @@
         <v>18</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -2823,7 +2833,7 @@
         <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -2839,7 +2849,7 @@
         <v>18</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -2855,7 +2865,7 @@
         <v>18</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -2868,10 +2878,10 @@
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2884,10 +2894,10 @@
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -2900,10 +2910,10 @@
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -2916,10 +2926,10 @@
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -2930,14 +2940,12 @@
       <c r="B77" s="2">
         <v>70</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -2948,12 +2956,14 @@
       <c r="B78" s="2">
         <v>71</v>
       </c>
-      <c r="C78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="D78" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -2966,10 +2976,10 @@
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -2982,10 +2992,10 @@
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -2998,10 +3008,10 @@
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -3014,10 +3024,10 @@
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -3030,30 +3040,26 @@
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="H83" s="3"/>
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" s="2">
         <v>77</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -3066,26 +3072,30 @@
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="3"/>
+      <c r="H85" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" s="2">
         <v>79</v>
       </c>
-      <c r="C86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D86" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -3098,10 +3108,10 @@
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -3114,10 +3124,10 @@
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -3130,10 +3140,10 @@
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -3146,33 +3156,30 @@
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
+      <c r="H90" s="3"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" s="2">
         <v>84</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="H91" s="3"/>
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
@@ -3181,32 +3188,33 @@
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" s="2">
         <v>86</v>
       </c>
-      <c r="C93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D93" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="3"/>
+      <c r="H93" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
@@ -3215,14 +3223,16 @@
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="3"/>
+      <c r="H94" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.2">
@@ -3234,7 +3244,7 @@
         <v>18</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -3250,7 +3260,7 @@
         <v>18</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -3266,7 +3276,7 @@
         <v>18</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -3282,7 +3292,7 @@
         <v>18</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -3298,7 +3308,7 @@
         <v>18</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -3314,7 +3324,7 @@
         <v>18</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -3330,7 +3340,7 @@
         <v>18</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -3343,10 +3353,10 @@
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -3359,10 +3369,10 @@
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -3375,10 +3385,10 @@
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -3391,15 +3401,47 @@
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="3"/>
       <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B106" s="2">
+        <v>99</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B107" s="2">
+        <v>100</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/機能一覧_D3.xlsx
+++ b/doc/機能一覧_D3.xlsx
@@ -8,21 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF535AB-FFF8-43F6-8DF2-DDDC5A27E8C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC22CC11-FB32-4253-A006-3CDBFD6CE327}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19510" yWindow="1590" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="138">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -355,23 +366,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーのログイン機能</t>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーの新規登録機能</t>
-    <rPh sb="5" eb="9">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タブの切り替え</t>
     <rPh sb="3" eb="4">
       <t>キ</t>
@@ -395,42 +389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ID忘れ対策機能</t>
-    <rPh sb="2" eb="3">
-      <t>ワス</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PW忘れ対策機能</t>
-    <rPh sb="2" eb="3">
-      <t>ワス</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>秘密の質問回答機能</t>
-    <rPh sb="0" eb="2">
-      <t>ヒミツ</t>
-    </rPh>
-    <rPh sb="3" eb="9">
-      <t>シツモンカイトウキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>秘密の質問内容表示</t>
     <rPh sb="0" eb="2">
       <t>ヒミツ</t>
@@ -467,13 +425,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PW再設定機能</t>
-    <rPh sb="2" eb="7">
-      <t>サイセッテイキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン画面へ移動</t>
     <rPh sb="1" eb="2">
       <t>ニュウ</t>
@@ -501,19 +452,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録完了お知らせ機能</t>
-    <rPh sb="0" eb="4">
-      <t>トウロクカンリョウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新しく登録したものを表示</t>
     <rPh sb="0" eb="1">
       <t>アタラ</t>
@@ -527,16 +465,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一般ユーザーメイン機能</t>
-    <rPh sb="0" eb="2">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規投稿（最新5件まで）</t>
     <rPh sb="0" eb="4">
       <t>シンキトウコウ</t>
@@ -608,16 +536,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理ユーザーメイン機能</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一般と管理者モード切替</t>
     <rPh sb="0" eb="2">
       <t>イッパン</t>
@@ -684,13 +602,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設定機能</t>
-    <rPh sb="0" eb="4">
-      <t>セッテイキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テキストの入力</t>
     <rPh sb="5" eb="7">
       <t>ニュウリョク</t>
@@ -758,13 +669,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>通報一覧機能</t>
-    <rPh sb="0" eb="6">
-      <t>ツウホウイチランキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>通報されたものの一覧表示</t>
     <rPh sb="0" eb="2">
       <t>ツウホウ</t>
@@ -812,13 +716,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>掲示板機能</t>
-    <rPh sb="0" eb="5">
-      <t>ケイジバンキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カテゴリ表示</t>
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
@@ -857,13 +754,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規投稿作成機能</t>
-    <rPh sb="0" eb="8">
-      <t>シンキトウコウサクセイキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトル入力</t>
     <rPh sb="4" eb="6">
       <t>ニュウリョク</t>
@@ -895,16 +785,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>返信機能</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>削除する</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -1134,19 +1014,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>通報された投稿表示機能</t>
-    <rPh sb="0" eb="2">
-      <t>ツウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ヒョウジキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>本文投稿日時</t>
     <rPh sb="0" eb="2">
       <t>ホンブン</t>
@@ -1203,6 +1070,172 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録機能</t>
+    <rPh sb="0" eb="6">
+      <t>シンキトウロクキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID忘れた人用</t>
+    <rPh sb="2" eb="3">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PW忘れた人用</t>
+    <rPh sb="2" eb="3">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒトヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘密の質問回答</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PW再設定orIDの開示</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者ユーザ機能</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通報</t>
+    <rPh sb="0" eb="2">
+      <t>ツウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通報の中身</t>
+    <rPh sb="0" eb="2">
+      <t>ツウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板（新規）</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板（返信）</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴの表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージの表示</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID、PW、社員番号、質問内容に関することなど</t>
+    <rPh sb="6" eb="10">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シツモンナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1251,7 +1284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1301,10 +1334,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1317,7 +1363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1345,9 +1391,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1356,6 +1399,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1695,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I107"/>
+  <dimension ref="B2:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1710,7 +1762,7 @@
     <col min="5" max="5" width="47.81640625" customWidth="1"/>
     <col min="6" max="6" width="19.453125" customWidth="1"/>
     <col min="7" max="7" width="12.90625" customWidth="1"/>
-    <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="41.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
@@ -1718,48 +1770,48 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="10"/>
+      <c r="H2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>45084</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>45085</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -1793,122 +1845,135 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
+      <c r="B8" s="12">
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
+      <c r="C8" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
+      <c r="B9" s="12">
         <v>2</v>
       </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
+      <c r="B10" s="12">
         <v>3</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
+      <c r="B11" s="12">
         <v>4</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
+      <c r="B12" s="12">
         <v>5</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
+      <c r="B13" s="12">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
+      <c r="B14" s="12">
         <v>7</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
+      <c r="B15" s="12">
         <v>8</v>
       </c>
       <c r="C15" s="2"/>
@@ -1916,15 +1981,17 @@
         <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
+      <c r="B16" s="12">
         <v>9</v>
       </c>
       <c r="C16" s="2"/>
@@ -1932,15 +1999,17 @@
         <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
+      <c r="B17" s="12">
         <v>10</v>
       </c>
       <c r="C17" s="2"/>
@@ -1948,89 +2017,99 @@
         <v>17</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
+      <c r="B18" s="12">
         <v>11</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
+      <c r="B19" s="12">
         <v>12</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="2">
+      <c r="B20" s="12">
         <v>13</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="2">
+      <c r="B21" s="12">
         <v>14</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="2">
+      <c r="B22" s="12">
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2038,15 +2117,14 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="2">
+      <c r="B23" s="12">
         <v>16</v>
       </c>
-      <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2054,15 +2132,15 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="2">
+      <c r="B24" s="12">
         <v>17</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2070,17 +2148,15 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="2">
+      <c r="B25" s="12">
         <v>18</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2088,31 +2164,30 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="2">
+      <c r="B26" s="12">
         <v>19</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="D26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="2">
+      <c r="B27" s="12">
         <v>20</v>
       </c>
-      <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2120,17 +2195,15 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="2">
+      <c r="B28" s="12">
         <v>21</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2138,15 +2211,15 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="2">
+      <c r="B29" s="12">
         <v>22</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2154,15 +2227,17 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="2">
+      <c r="B30" s="12">
         <v>23</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2170,15 +2245,14 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="2">
+      <c r="B31" s="12">
         <v>24</v>
       </c>
-      <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2186,17 +2260,15 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="2">
+      <c r="B32" s="12">
         <v>25</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2204,15 +2276,15 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="2">
+      <c r="B33" s="12">
         <v>26</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2220,15 +2292,15 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="2">
+      <c r="B34" s="12">
         <v>27</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2236,15 +2308,17 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="2">
+      <c r="B35" s="12">
         <v>28</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="D35" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2252,17 +2326,14 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="2">
+      <c r="B36" s="12">
         <v>29</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2270,15 +2341,15 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="2">
+      <c r="B37" s="12">
         <v>30</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2286,17 +2357,15 @@
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="2">
+      <c r="B38" s="12">
         <v>31</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2304,15 +2373,15 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="2">
+      <c r="B39" s="12">
         <v>32</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2320,15 +2389,17 @@
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="2">
+      <c r="B40" s="12">
         <v>33</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="D40" s="2" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -2336,51 +2407,49 @@
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="2">
+      <c r="B41" s="12">
         <v>34</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="H41" s="3"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="2">
+    <row r="42" spans="2:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="12">
         <v>35</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="2">
+      <c r="B43" s="12">
         <v>36</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2388,15 +2457,17 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="2">
+      <c r="B44" s="12">
         <v>37</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="D44" s="2" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2404,15 +2475,14 @@
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="2">
+      <c r="B45" s="12">
         <v>38</v>
       </c>
-      <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2420,15 +2490,15 @@
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="2">
+      <c r="B46" s="12">
         <v>39</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2436,101 +2506,109 @@
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="2">
+      <c r="B47" s="12">
         <v>40</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="H47" s="3"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="2">
+      <c r="B48" s="12">
         <v>41</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="2">
+      <c r="B49" s="12">
         <v>42</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="G49" s="2"/>
       <c r="H49" s="3"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="2">
+      <c r="B50" s="12">
         <v>43</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="G50" s="2"/>
-      <c r="H50" s="3"/>
+      <c r="H50" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="2">
+      <c r="B51" s="12">
         <v>44</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="G51" s="2"/>
-      <c r="H51" s="3"/>
+      <c r="H51" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="2">
+      <c r="B52" s="12">
         <v>45</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="D52" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2538,15 +2616,14 @@
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="2">
+      <c r="B53" s="12">
         <v>46</v>
       </c>
-      <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2554,7 +2631,7 @@
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="2">
+      <c r="B54" s="12">
         <v>47</v>
       </c>
       <c r="C54" s="2"/>
@@ -2562,25 +2639,23 @@
         <v>32</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="H54" s="3"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="2">
+      <c r="B55" s="12">
         <v>48</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -2588,15 +2663,15 @@
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="2">
+      <c r="B56" s="12">
         <v>49</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -2604,155 +2679,155 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="2">
+      <c r="B57" s="12">
         <v>50</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="H57" s="3"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="2">
+      <c r="B58" s="12">
         <v>51</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="2">
+      <c r="B59" s="12">
         <v>52</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="H59" s="3"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="2">
+      <c r="B60" s="12">
         <v>53</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="H60" s="3"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="2">
+      <c r="B61" s="12">
         <v>54</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="3"/>
+      <c r="H61" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="2">
+      <c r="B62" s="12">
         <v>55</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="3"/>
+      <c r="H62" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="2">
+      <c r="B63" s="12">
         <v>56</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="2">
+      <c r="B64" s="12">
         <v>57</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="3"/>
+      <c r="H64" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="2">
+      <c r="B65" s="12">
         <v>58</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="D65" s="2" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -2760,17 +2835,14 @@
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="2">
+      <c r="B66" s="12">
         <v>59</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -2778,46 +2850,49 @@
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="2">
+      <c r="B67" s="12">
         <v>60</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
+      <c r="H67" s="3"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="2">
+      <c r="B68" s="12">
         <v>61</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="3"/>
+      <c r="H68" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="2">
+      <c r="B69" s="12">
         <v>62</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -2825,15 +2900,15 @@
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="2">
+      <c r="B70" s="12">
         <v>63</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -2841,15 +2916,17 @@
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="2">
+      <c r="B71" s="12">
         <v>64</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="D71" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -2857,7 +2934,7 @@
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="2">
+      <c r="B72" s="12">
         <v>65</v>
       </c>
       <c r="C72" s="2"/>
@@ -2865,15 +2942,14 @@
         <v>18</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="3"/>
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="2">
+      <c r="B73" s="12">
         <v>66</v>
       </c>
       <c r="C73" s="2"/>
@@ -2881,7 +2957,7 @@
         <v>18</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2889,15 +2965,15 @@
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="2">
+      <c r="B74" s="12">
         <v>67</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -2905,15 +2981,15 @@
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="2">
+      <c r="B75" s="12">
         <v>68</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -2921,15 +2997,15 @@
       <c r="I75" s="2"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="2">
+      <c r="B76" s="12">
         <v>69</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -2937,15 +3013,15 @@
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="2">
+      <c r="B77" s="12">
         <v>70</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -2953,17 +3029,15 @@
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="2">
+      <c r="B78" s="12">
         <v>71</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -2971,15 +3045,15 @@
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="2">
+      <c r="B79" s="12">
         <v>72</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -2987,15 +3061,15 @@
       <c r="I79" s="2"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="2">
+      <c r="B80" s="12">
         <v>73</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -3003,15 +3077,15 @@
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" s="2">
+      <c r="B81" s="12">
         <v>74</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -3019,15 +3093,15 @@
       <c r="I81" s="2"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="2">
+      <c r="B82" s="12">
         <v>75</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -3035,15 +3109,17 @@
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" s="2">
+      <c r="B83" s="12">
         <v>76</v>
       </c>
-      <c r="C83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="D83" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -3051,15 +3127,15 @@
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" s="2">
+      <c r="B84" s="12">
         <v>77</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -3067,35 +3143,31 @@
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" s="2">
+      <c r="B85" s="12">
         <v>78</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="H85" s="3"/>
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B86" s="2">
+      <c r="B86" s="12">
         <v>79</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -3103,15 +3175,15 @@
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B87" s="2">
+      <c r="B87" s="12">
         <v>80</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -3119,15 +3191,15 @@
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B88" s="2">
+      <c r="B88" s="12">
         <v>81</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -3135,15 +3207,15 @@
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" s="2">
+      <c r="B89" s="12">
         <v>82</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -3151,15 +3223,15 @@
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B90" s="2">
+      <c r="B90" s="12">
         <v>83</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -3167,84 +3239,83 @@
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" s="2">
+      <c r="B91" s="12">
         <v>84</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="3"/>
+      <c r="H91" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B92" s="2">
+      <c r="B92" s="12">
         <v>85</v>
       </c>
-      <c r="C92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
+      <c r="H92" s="3"/>
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B93" s="2">
+      <c r="B93" s="12">
         <v>86</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="H93" s="3"/>
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B94" s="2">
+      <c r="B94" s="12">
         <v>87</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="H94" s="3"/>
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B95" s="2">
+      <c r="B95" s="12">
         <v>88</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -3252,15 +3323,15 @@
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B96" s="2">
+      <c r="B96" s="12">
         <v>89</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -3268,15 +3339,15 @@
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B97" s="2">
+      <c r="B97" s="12">
         <v>90</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -3284,55 +3355,60 @@
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B98" s="2">
+      <c r="B98" s="12">
         <v>91</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="3"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="2">
+      <c r="B99" s="12">
         <v>92</v>
       </c>
-      <c r="C99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D99" s="2" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="3"/>
+      <c r="H99" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B100" s="2">
+      <c r="B100" s="12">
         <v>93</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="3"/>
+      <c r="H100" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B101" s="2">
+      <c r="B101" s="12">
         <v>94</v>
       </c>
       <c r="C101" s="2"/>
@@ -3340,7 +3416,7 @@
         <v>18</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -3348,7 +3424,7 @@
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B102" s="2">
+      <c r="B102" s="12">
         <v>95</v>
       </c>
       <c r="C102" s="2"/>
@@ -3356,7 +3432,7 @@
         <v>18</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -3364,7 +3440,7 @@
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B103" s="2">
+      <c r="B103" s="12">
         <v>96</v>
       </c>
       <c r="C103" s="2"/>
@@ -3372,7 +3448,7 @@
         <v>18</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -3380,15 +3456,15 @@
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B104" s="2">
+      <c r="B104" s="12">
         <v>97</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -3396,15 +3472,15 @@
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B105" s="2">
+      <c r="B105" s="12">
         <v>98</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -3412,15 +3488,15 @@
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B106" s="2">
+      <c r="B106" s="12">
         <v>99</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -3428,20 +3504,116 @@
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B107" s="2">
+      <c r="B107" s="12">
         <v>100</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="3"/>
       <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B108" s="12">
+        <v>101</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B109" s="12">
+        <v>102</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B110" s="12">
+        <v>103</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B111" s="12">
+        <v>104</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B112" s="2">
+        <v>105</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B113" s="2">
+        <v>106</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/機能一覧_D3.xlsx
+++ b/doc/機能一覧_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC22CC11-FB32-4253-A006-3CDBFD6CE327}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FE7B4D-2768-465C-8B46-D3B4AB566ECC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="60" windowWidth="15210" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1391,6 +1391,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1399,15 +1408,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1775,10 +1775,10 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
@@ -1790,28 +1790,28 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="13">
         <v>45084</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="13">
         <v>45085</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -1845,27 +1845,27 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="12"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
@@ -1883,7 +1883,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>3</v>
       </c>
       <c r="C10" s="2"/>
@@ -1901,7 +1901,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>4</v>
       </c>
       <c r="C11" s="7"/>
@@ -1919,7 +1919,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>5</v>
       </c>
       <c r="C12" s="7"/>
@@ -1937,7 +1937,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>6</v>
       </c>
       <c r="C13" s="7"/>
@@ -1955,7 +1955,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="12">
+      <c r="B14" s="9">
         <v>7</v>
       </c>
       <c r="C14" s="2"/>
@@ -1973,7 +1973,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="12">
+      <c r="B15" s="9">
         <v>8</v>
       </c>
       <c r="C15" s="2"/>
@@ -1991,7 +1991,7 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="12">
+      <c r="B16" s="9">
         <v>9</v>
       </c>
       <c r="C16" s="2"/>
@@ -2009,7 +2009,7 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="12">
+      <c r="B17" s="9">
         <v>10</v>
       </c>
       <c r="C17" s="2"/>
@@ -2027,7 +2027,7 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="12">
+      <c r="B18" s="9">
         <v>11</v>
       </c>
       <c r="C18" s="2"/>
@@ -2045,7 +2045,7 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="12">
+      <c r="B19" s="9">
         <v>12</v>
       </c>
       <c r="C19" s="2"/>
@@ -2063,7 +2063,7 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="12">
+      <c r="B20" s="9">
         <v>13</v>
       </c>
       <c r="C20" s="2"/>
@@ -2081,7 +2081,7 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="12">
+      <c r="B21" s="9">
         <v>14</v>
       </c>
       <c r="C21" s="2"/>
@@ -2099,7 +2099,7 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="12">
+      <c r="B22" s="9">
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2117,7 +2117,7 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2132,7 +2132,7 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="12">
+      <c r="B24" s="9">
         <v>17</v>
       </c>
       <c r="C24" s="2"/>
@@ -2148,7 +2148,7 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="12">
+      <c r="B25" s="9">
         <v>18</v>
       </c>
       <c r="C25" s="2"/>
@@ -2164,7 +2164,7 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="12">
+      <c r="B26" s="9">
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2180,7 +2180,7 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="12">
+      <c r="B27" s="9">
         <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2195,7 +2195,7 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="12">
+      <c r="B28" s="9">
         <v>21</v>
       </c>
       <c r="C28" s="2"/>
@@ -2211,7 +2211,7 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="12">
+      <c r="B29" s="9">
         <v>22</v>
       </c>
       <c r="C29" s="2"/>
@@ -2227,7 +2227,7 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="12">
+      <c r="B30" s="9">
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2245,7 +2245,7 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="12">
+      <c r="B31" s="9">
         <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2260,7 +2260,7 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="12">
+      <c r="B32" s="9">
         <v>25</v>
       </c>
       <c r="C32" s="2"/>
@@ -2276,7 +2276,7 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="12">
+      <c r="B33" s="9">
         <v>26</v>
       </c>
       <c r="C33" s="2"/>
@@ -2292,7 +2292,7 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <v>27</v>
       </c>
       <c r="C34" s="2"/>
@@ -2308,7 +2308,7 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="12">
+      <c r="B35" s="9">
         <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2326,7 +2326,7 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="12">
+      <c r="B36" s="9">
         <v>29</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2341,7 +2341,7 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="12">
+      <c r="B37" s="9">
         <v>30</v>
       </c>
       <c r="C37" s="2"/>
@@ -2357,7 +2357,7 @@
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="12">
+      <c r="B38" s="9">
         <v>31</v>
       </c>
       <c r="C38" s="2"/>
@@ -2373,7 +2373,7 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="12">
+      <c r="B39" s="9">
         <v>32</v>
       </c>
       <c r="C39" s="2"/>
@@ -2389,7 +2389,7 @@
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="12">
+      <c r="B40" s="9">
         <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2407,7 +2407,7 @@
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="12">
+      <c r="B41" s="9">
         <v>34</v>
       </c>
       <c r="C41" s="2"/>
@@ -2423,7 +2423,7 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="2:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="12">
+      <c r="B42" s="9">
         <v>35</v>
       </c>
       <c r="C42" s="2"/>
@@ -2441,7 +2441,7 @@
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="12">
+      <c r="B43" s="9">
         <v>36</v>
       </c>
       <c r="C43" s="2"/>
@@ -2457,7 +2457,7 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="12">
+      <c r="B44" s="9">
         <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2475,7 +2475,7 @@
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="12">
+      <c r="B45" s="9">
         <v>38</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -2490,7 +2490,7 @@
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="12">
+      <c r="B46" s="9">
         <v>39</v>
       </c>
       <c r="C46" s="2"/>
@@ -2506,7 +2506,7 @@
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="12">
+      <c r="B47" s="9">
         <v>40</v>
       </c>
       <c r="C47" s="2"/>
@@ -2522,7 +2522,7 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="12">
+      <c r="B48" s="9">
         <v>41</v>
       </c>
       <c r="C48" s="2"/>
@@ -2540,7 +2540,7 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="12">
+      <c r="B49" s="9">
         <v>42</v>
       </c>
       <c r="C49" s="2"/>
@@ -2558,7 +2558,7 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="12">
+      <c r="B50" s="9">
         <v>43</v>
       </c>
       <c r="C50" s="2"/>
@@ -2578,7 +2578,7 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="12">
+      <c r="B51" s="9">
         <v>44</v>
       </c>
       <c r="C51" s="2"/>
@@ -2598,7 +2598,7 @@
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="12">
+      <c r="B52" s="9">
         <v>45</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -2616,7 +2616,7 @@
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="12">
+      <c r="B53" s="9">
         <v>46</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -2631,7 +2631,7 @@
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="12">
+      <c r="B54" s="9">
         <v>47</v>
       </c>
       <c r="C54" s="2"/>
@@ -2647,7 +2647,7 @@
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="12">
+      <c r="B55" s="9">
         <v>48</v>
       </c>
       <c r="C55" s="2"/>
@@ -2663,7 +2663,7 @@
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="12">
+      <c r="B56" s="9">
         <v>49</v>
       </c>
       <c r="C56" s="2"/>
@@ -2679,7 +2679,7 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="12">
+      <c r="B57" s="9">
         <v>50</v>
       </c>
       <c r="C57" s="2"/>
@@ -2695,7 +2695,7 @@
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="12">
+      <c r="B58" s="9">
         <v>51</v>
       </c>
       <c r="C58" s="2"/>
@@ -2713,7 +2713,7 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="12">
+      <c r="B59" s="9">
         <v>52</v>
       </c>
       <c r="C59" s="2"/>
@@ -2729,7 +2729,7 @@
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="12">
+      <c r="B60" s="9">
         <v>53</v>
       </c>
       <c r="C60" s="2"/>
@@ -2745,7 +2745,7 @@
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="12">
+      <c r="B61" s="9">
         <v>54</v>
       </c>
       <c r="C61" s="2"/>
@@ -2763,7 +2763,7 @@
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="12">
+      <c r="B62" s="9">
         <v>55</v>
       </c>
       <c r="C62" s="2"/>
@@ -2781,7 +2781,7 @@
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="12">
+      <c r="B63" s="9">
         <v>56</v>
       </c>
       <c r="C63" s="2"/>
@@ -2799,7 +2799,7 @@
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="12">
+      <c r="B64" s="9">
         <v>57</v>
       </c>
       <c r="C64" s="2"/>
@@ -2817,7 +2817,7 @@
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="12">
+      <c r="B65" s="9">
         <v>58</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -2835,7 +2835,7 @@
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="12">
+      <c r="B66" s="9">
         <v>59</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -2850,7 +2850,7 @@
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="12">
+      <c r="B67" s="9">
         <v>60</v>
       </c>
       <c r="C67" s="2"/>
@@ -2866,7 +2866,7 @@
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="12">
+      <c r="B68" s="9">
         <v>61</v>
       </c>
       <c r="C68" s="2"/>
@@ -2884,7 +2884,7 @@
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="12">
+      <c r="B69" s="9">
         <v>62</v>
       </c>
       <c r="C69" s="2"/>
@@ -2900,7 +2900,7 @@
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="12">
+      <c r="B70" s="9">
         <v>63</v>
       </c>
       <c r="C70" s="2"/>
@@ -2916,7 +2916,7 @@
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="12">
+      <c r="B71" s="9">
         <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -2934,7 +2934,7 @@
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="12">
+      <c r="B72" s="9">
         <v>65</v>
       </c>
       <c r="C72" s="2"/>
@@ -2949,7 +2949,7 @@
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="12">
+      <c r="B73" s="9">
         <v>66</v>
       </c>
       <c r="C73" s="2"/>
@@ -2965,7 +2965,7 @@
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="12">
+      <c r="B74" s="9">
         <v>67</v>
       </c>
       <c r="C74" s="2"/>
@@ -2981,7 +2981,7 @@
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="12">
+      <c r="B75" s="9">
         <v>68</v>
       </c>
       <c r="C75" s="2"/>
@@ -2997,7 +2997,7 @@
       <c r="I75" s="2"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="12">
+      <c r="B76" s="9">
         <v>69</v>
       </c>
       <c r="C76" s="2"/>
@@ -3013,7 +3013,7 @@
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="12">
+      <c r="B77" s="9">
         <v>70</v>
       </c>
       <c r="C77" s="2"/>
@@ -3029,7 +3029,7 @@
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="12">
+      <c r="B78" s="9">
         <v>71</v>
       </c>
       <c r="C78" s="2"/>
@@ -3045,7 +3045,7 @@
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="12">
+      <c r="B79" s="9">
         <v>72</v>
       </c>
       <c r="C79" s="2"/>
@@ -3061,7 +3061,7 @@
       <c r="I79" s="2"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="12">
+      <c r="B80" s="9">
         <v>73</v>
       </c>
       <c r="C80" s="2"/>
@@ -3077,7 +3077,7 @@
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" s="12">
+      <c r="B81" s="9">
         <v>74</v>
       </c>
       <c r="C81" s="2"/>
@@ -3093,7 +3093,7 @@
       <c r="I81" s="2"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="12">
+      <c r="B82" s="9">
         <v>75</v>
       </c>
       <c r="C82" s="2"/>
@@ -3109,7 +3109,7 @@
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" s="12">
+      <c r="B83" s="9">
         <v>76</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -3127,7 +3127,7 @@
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" s="12">
+      <c r="B84" s="9">
         <v>77</v>
       </c>
       <c r="C84" s="2"/>
@@ -3143,7 +3143,7 @@
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" s="12">
+      <c r="B85" s="9">
         <v>78</v>
       </c>
       <c r="C85" s="2"/>
@@ -3159,7 +3159,7 @@
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B86" s="12">
+      <c r="B86" s="9">
         <v>79</v>
       </c>
       <c r="C86" s="2"/>
@@ -3175,7 +3175,7 @@
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B87" s="12">
+      <c r="B87" s="9">
         <v>80</v>
       </c>
       <c r="C87" s="2"/>
@@ -3191,7 +3191,7 @@
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B88" s="12">
+      <c r="B88" s="9">
         <v>81</v>
       </c>
       <c r="C88" s="2"/>
@@ -3207,7 +3207,7 @@
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" s="12">
+      <c r="B89" s="9">
         <v>82</v>
       </c>
       <c r="C89" s="2"/>
@@ -3223,7 +3223,7 @@
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B90" s="12">
+      <c r="B90" s="9">
         <v>83</v>
       </c>
       <c r="C90" s="2"/>
@@ -3239,7 +3239,7 @@
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" s="12">
+      <c r="B91" s="9">
         <v>84</v>
       </c>
       <c r="C91" s="2"/>
@@ -3257,7 +3257,7 @@
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B92" s="12">
+      <c r="B92" s="9">
         <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -3275,7 +3275,7 @@
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B93" s="12">
+      <c r="B93" s="9">
         <v>86</v>
       </c>
       <c r="C93" s="2"/>
@@ -3291,7 +3291,7 @@
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B94" s="12">
+      <c r="B94" s="9">
         <v>87</v>
       </c>
       <c r="C94" s="2"/>
@@ -3307,7 +3307,7 @@
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B95" s="12">
+      <c r="B95" s="9">
         <v>88</v>
       </c>
       <c r="C95" s="2"/>
@@ -3323,7 +3323,7 @@
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B96" s="12">
+      <c r="B96" s="9">
         <v>89</v>
       </c>
       <c r="C96" s="2"/>
@@ -3339,7 +3339,7 @@
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B97" s="12">
+      <c r="B97" s="9">
         <v>90</v>
       </c>
       <c r="C97" s="2"/>
@@ -3355,7 +3355,7 @@
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B98" s="12">
+      <c r="B98" s="9">
         <v>91</v>
       </c>
       <c r="C98" s="2"/>
@@ -3370,7 +3370,7 @@
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="12">
+      <c r="B99" s="9">
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -3390,7 +3390,7 @@
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B100" s="12">
+      <c r="B100" s="9">
         <v>93</v>
       </c>
       <c r="C100" s="2"/>
@@ -3408,7 +3408,7 @@
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B101" s="12">
+      <c r="B101" s="9">
         <v>94</v>
       </c>
       <c r="C101" s="2"/>
@@ -3424,7 +3424,7 @@
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B102" s="12">
+      <c r="B102" s="9">
         <v>95</v>
       </c>
       <c r="C102" s="2"/>
@@ -3440,7 +3440,7 @@
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B103" s="12">
+      <c r="B103" s="9">
         <v>96</v>
       </c>
       <c r="C103" s="2"/>
@@ -3456,7 +3456,7 @@
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B104" s="12">
+      <c r="B104" s="9">
         <v>97</v>
       </c>
       <c r="C104" s="2"/>
@@ -3472,7 +3472,7 @@
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B105" s="12">
+      <c r="B105" s="9">
         <v>98</v>
       </c>
       <c r="C105" s="2"/>
@@ -3488,7 +3488,7 @@
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B106" s="12">
+      <c r="B106" s="9">
         <v>99</v>
       </c>
       <c r="C106" s="2"/>
@@ -3504,7 +3504,7 @@
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B107" s="12">
+      <c r="B107" s="9">
         <v>100</v>
       </c>
       <c r="C107" s="2"/>
@@ -3520,7 +3520,7 @@
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B108" s="12">
+      <c r="B108" s="9">
         <v>101</v>
       </c>
       <c r="C108" s="2"/>
@@ -3536,7 +3536,7 @@
       <c r="I108" s="2"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B109" s="12">
+      <c r="B109" s="9">
         <v>102</v>
       </c>
       <c r="C109" s="2"/>
@@ -3552,7 +3552,7 @@
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B110" s="12">
+      <c r="B110" s="9">
         <v>103</v>
       </c>
       <c r="C110" s="2"/>
@@ -3568,7 +3568,7 @@
       <c r="I110" s="2"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B111" s="12">
+      <c r="B111" s="9">
         <v>104</v>
       </c>
       <c r="C111" s="2"/>

--- a/doc/機能一覧_D3.xlsx
+++ b/doc/機能一覧_D3.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FE7B4D-2768-465C-8B46-D3B4AB566ECC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B11186B-8DB7-4F64-85C6-1761FB41B404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="60" windowWidth="15210" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="139">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1236,6 +1234,19 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川口陽紀</t>
+    <rPh sb="0" eb="2">
+      <t>カワグチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1749,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1800,7 +1811,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="I4" s="12"/>
     </row>
@@ -1809,7 +1820,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="13">
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="I5" s="13"/>
     </row>
@@ -3626,30 +3637,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>